--- a/repositories-github.xlsx
+++ b/repositories-github.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="231">
   <si>
     <t>Organization</t>
   </si>
@@ -28,6 +28,21 @@
     <t>Include</t>
   </si>
   <si>
+    <t>julz0815</t>
+  </si>
+  <si>
+    <t>dev-count-test-headless</t>
+  </si>
+  <si>
+    <t>julz0815/dev-count-test-headless</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>julian-veracode</t>
   </si>
   <si>
@@ -35,15 +50,6 @@
   </si>
   <si>
     <t>julian-veracode/veracode</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>julz0815</t>
   </si>
   <si>
     <t>veracode-dev-count</t>
@@ -1074,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -1137,7 +1143,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1154,7 +1160,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1171,7 +1177,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1239,13 +1245,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1256,7 +1262,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1273,7 +1279,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1290,7 +1296,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1307,7 +1313,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -1324,7 +1330,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -1375,7 +1381,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -1392,7 +1398,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1409,7 +1415,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
@@ -1426,7 +1432,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
@@ -1443,7 +1449,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -1494,10 +1500,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
@@ -1511,10 +1517,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>59</v>
@@ -1528,7 +1534,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
@@ -1545,7 +1551,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
@@ -1579,7 +1585,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>66</v>
@@ -1596,7 +1602,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
@@ -1647,7 +1653,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>74</v>
@@ -1664,7 +1670,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>76</v>
@@ -1681,7 +1687,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>78</v>
@@ -1701,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -1718,7 +1724,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
         <v>82</v>
@@ -1732,7 +1738,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
@@ -1749,7 +1755,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
         <v>85</v>
@@ -1766,13 +1772,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -1783,10 +1789,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>89</v>
@@ -1800,7 +1806,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
         <v>90</v>
@@ -1817,7 +1823,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
         <v>92</v>
@@ -1834,7 +1840,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
         <v>94</v>
@@ -1871,10 +1877,10 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -1885,10 +1891,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>100</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>109</v>
@@ -1987,13 +1993,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2007,10 +2013,10 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2024,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>114</v>
@@ -2055,7 +2061,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
         <v>117</v>
@@ -2072,7 +2078,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
         <v>119</v>
@@ -2089,7 +2095,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>121</v>
@@ -2106,7 +2112,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
         <v>123</v>
@@ -2126,10 +2132,10 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2140,10 +2146,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
         <v>127</v>
@@ -2157,7 +2163,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
         <v>128</v>
@@ -2174,7 +2180,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
         <v>130</v>
@@ -2191,13 +2197,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2211,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C67" t="s">
         <v>134</v>
@@ -2225,7 +2231,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
@@ -2276,7 +2282,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
         <v>141</v>
@@ -2293,7 +2299,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
         <v>143</v>
@@ -2310,13 +2316,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
         <v>145</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>146</v>
-      </c>
-      <c r="C73" t="s">
-        <v>147</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2327,7 +2333,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
         <v>148</v>
@@ -2344,7 +2350,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
         <v>150</v>
@@ -2361,7 +2367,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
         <v>152</v>
@@ -2378,7 +2384,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
         <v>154</v>
@@ -2395,7 +2401,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
         <v>156</v>
@@ -2412,7 +2418,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
         <v>158</v>
@@ -2429,13 +2435,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>161</v>
-      </c>
-      <c r="C80" t="s">
-        <v>162</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -2446,7 +2452,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
         <v>163</v>
@@ -2463,7 +2469,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
         <v>165</v>
@@ -2480,10 +2486,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" t="s">
         <v>167</v>
-      </c>
-      <c r="B83" t="s">
-        <v>23</v>
       </c>
       <c r="C83" t="s">
         <v>168</v>
@@ -2497,13 +2503,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -2514,13 +2520,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -2531,13 +2537,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -2548,13 +2554,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -2565,10 +2571,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
         <v>174</v>
@@ -2582,7 +2588,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
         <v>175</v>
@@ -2599,13 +2605,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" t="s">
         <v>177</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>178</v>
-      </c>
-      <c r="C90" t="s">
-        <v>179</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -2616,7 +2622,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
         <v>180</v>
@@ -2633,13 +2639,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B92" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -2650,10 +2656,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
         <v>184</v>
@@ -2667,7 +2673,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="B94" t="s">
         <v>185</v>
@@ -2684,7 +2690,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
         <v>187</v>
@@ -2701,7 +2707,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
         <v>189</v>
@@ -2718,7 +2724,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B97" t="s">
         <v>191</v>
@@ -2735,7 +2741,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="B98" t="s">
         <v>193</v>
@@ -2752,7 +2758,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
         <v>195</v>
@@ -2769,7 +2775,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
         <v>197</v>
@@ -2786,7 +2792,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
         <v>199</v>
@@ -2803,7 +2809,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
         <v>201</v>
@@ -2820,7 +2826,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
         <v>203</v>
@@ -2837,7 +2843,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B104" t="s">
         <v>205</v>
@@ -2854,7 +2860,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
         <v>207</v>
@@ -2871,7 +2877,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
         <v>209</v>
@@ -2888,7 +2894,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
         <v>211</v>
@@ -2905,7 +2911,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
         <v>213</v>
@@ -2922,7 +2928,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
         <v>215</v>
@@ -2939,7 +2945,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
         <v>217</v>
@@ -2956,7 +2962,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
         <v>219</v>
@@ -2973,10 +2979,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
         <v>221</v>
-      </c>
-      <c r="B112" t="s">
-        <v>219</v>
       </c>
       <c r="C112" t="s">
         <v>222</v>
@@ -2993,10 +2999,10 @@
         <v>223</v>
       </c>
       <c r="B113" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" t="s">
         <v>224</v>
-      </c>
-      <c r="C113" t="s">
-        <v>225</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -3007,13 +3013,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B114" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="C114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -3024,10 +3030,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="C115" t="s">
         <v>228</v>
@@ -3036,6 +3042,23 @@
         <v>8</v>
       </c>
       <c r="E115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
         <v>9</v>
       </c>
     </row>
